--- a/MangoServer/upload_template/元素批量上传模版.xlsx
+++ b/MangoServer/upload_template/元素批量上传模版.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B:$B</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,15 +32,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>元素名称</t>
   </si>
   <si>
-    <t>表达式类型</t>
+    <t>类型-1</t>
   </si>
   <si>
-    <t>定位表达式</t>
+    <t>定位-1</t>
+  </si>
+  <si>
+    <t>类型-2</t>
+  </si>
+  <si>
+    <t>定位-2</t>
+  </si>
+  <si>
+    <t>类型-3</t>
+  </si>
+  <si>
+    <t>定位-3</t>
   </si>
   <si>
     <t>等待时间（秒）</t>
@@ -1008,22 +1023,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:5">
+    <row r="1" ht="18" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,10 +1058,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 D2:D1048576 F2:F1048576">
       <formula1>"XPATH,通用定位器,WEB_文本,WEB_占位符,WEB_CSS,安卓_description,安卓_bounds,安卓_resourceId"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MangoServer/upload_template/元素批量上传模版.xlsx
+++ b/MangoServer/upload_template/元素批量上传模版.xlsx
@@ -32,15 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>元素名称</t>
+    <t>*元素名称</t>
   </si>
   <si>
-    <t>类型-1</t>
+    <t>*类型-1</t>
   </si>
   <si>
-    <t>定位-1</t>
+    <t>*定位-1</t>
+  </si>
+  <si>
+    <t>元素下标-1</t>
   </si>
   <si>
     <t>类型-2</t>
@@ -49,16 +52,19 @@
     <t>定位-2</t>
   </si>
   <si>
+    <t>元素下标-2</t>
+  </si>
+  <si>
     <t>类型-3</t>
   </si>
   <si>
     <t>定位-3</t>
   </si>
   <si>
-    <t>等待时间（秒）</t>
+    <t>元素下标-3</t>
   </si>
   <si>
-    <t>元素下标（1开始）</t>
+    <t>等待时间</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1034,15 +1040,17 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:9">
+    <row r="1" ht="18" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,10 +1078,16 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 D2:D1048576 F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 E2:E1048576 H2:H1048576">
       <formula1>"XPATH,通用定位器,WEB_文本,WEB_占位符,WEB_CSS,安卓_description,安卓_bounds,安卓_resourceId"</formula1>
     </dataValidation>
   </dataValidations>
